--- a/build/classes/resources/excel/Thống Kê Doanh Thu.xlsx
+++ b/build/classes/resources/excel/Thống Kê Doanh Thu.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Danh Sách Doanh Thu" r:id="rId3" sheetId="1"/>
+    <sheet name="Danh Sách Khoảng Chi" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>Danh Sách Doanh Thu</t>
   </si>
@@ -117,6 +118,63 @@
   </si>
   <si>
     <t>chuối</t>
+  </si>
+  <si>
+    <t>Danh Sách Khoảng Chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH004 </t>
+  </si>
+  <si>
+    <t>7Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH007 </t>
+  </si>
+  <si>
+    <t>Thịt Heo Ba rọi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH008 </t>
+  </si>
+  <si>
+    <t>Thịt Cá Diêu Hồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH009 </t>
+  </si>
+  <si>
+    <t>Mì Hảo Hảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH011 </t>
+  </si>
+  <si>
+    <t>Hủ Tiếu Nam Vang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH013 </t>
+  </si>
+  <si>
+    <t>Snack Lay's sườn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH014 </t>
+  </si>
+  <si>
+    <t>Bánh Gạo One One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH018 </t>
+  </si>
+  <si>
+    <t>Dưa Hấu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH019 </t>
+  </si>
+  <si>
+    <t>Táo</t>
   </si>
 </sst>
 </file>
@@ -153,10 +211,12 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -166,15 +226,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.13671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.99609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.44921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.66015625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.13671875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.99609375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.44921875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -217,10 +277,10 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="n" s="1">
+      <c r="D4" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E4" t="n" s="1">
+      <c r="E4" s="2" t="n">
         <v>40000.0</v>
       </c>
     </row>
@@ -234,10 +294,10 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="n" s="1">
+      <c r="D5" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E5" t="n" s="1">
+      <c r="E5" s="2" t="n">
         <v>40000.0</v>
       </c>
     </row>
@@ -251,10 +311,10 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="n" s="1">
+      <c r="D6" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E6" t="n" s="1">
+      <c r="E6" s="2" t="n">
         <v>40000.0</v>
       </c>
     </row>
@@ -268,10 +328,10 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="n" s="1">
+      <c r="D7" s="2" t="n">
         <v>10.0</v>
       </c>
-      <c r="E7" t="n" s="1">
+      <c r="E7" s="2" t="n">
         <v>100000.0</v>
       </c>
     </row>
@@ -285,10 +345,10 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="n" s="1">
+      <c r="D8" s="2" t="n">
         <v>20.0</v>
       </c>
-      <c r="E8" t="n" s="1">
+      <c r="E8" s="2" t="n">
         <v>200000.0</v>
       </c>
     </row>
@@ -302,10 +362,10 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="n" s="1">
+      <c r="D9" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="E9" t="n" s="1">
+      <c r="E9" s="2" t="n">
         <v>30000.0</v>
       </c>
     </row>
@@ -319,10 +379,10 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="n" s="1">
+      <c r="D10" s="2" t="n">
         <v>5.0</v>
       </c>
-      <c r="E10" t="n" s="1">
+      <c r="E10" s="2" t="n">
         <v>100000.0</v>
       </c>
     </row>
@@ -336,10 +396,10 @@
       <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="n" s="1">
+      <c r="D11" s="2" t="n">
         <v>10.0</v>
       </c>
-      <c r="E11" t="n" s="1">
+      <c r="E11" s="2" t="n">
         <v>100000.0</v>
       </c>
     </row>
@@ -353,10 +413,10 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="n" s="1">
+      <c r="D12" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="E12" t="n" s="1">
+      <c r="E12" s="2" t="n">
         <v>40000.0</v>
       </c>
     </row>
@@ -370,10 +430,10 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="n" s="1">
+      <c r="D13" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="E13" t="n" s="1">
+      <c r="E13" s="2" t="n">
         <v>20000.0</v>
       </c>
     </row>
@@ -387,11 +447,401 @@
       <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="n" s="1">
+      <c r="D14" s="2" t="n">
         <v>5.0</v>
       </c>
-      <c r="E14" t="n" s="1">
+      <c r="E14" s="2" t="n">
         <v>100000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="20.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.99609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.16796875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n" s="3">
+        <v>240.0</v>
+      </c>
+      <c r="E4" t="n" s="3">
+        <v>960000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E5" t="n" s="3">
+        <v>640000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E6" t="n" s="3">
+        <v>640000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E7" t="n" s="3">
+        <v>1.6E7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E8" t="n" s="3">
+        <v>1.6E7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E9" t="n" s="3">
+        <v>1.6E7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E10" t="n" s="3">
+        <v>640000.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E11" t="n" s="3">
+        <v>960000.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="n" s="3">
+        <v>800.0</v>
+      </c>
+      <c r="E12" t="n" s="3">
+        <v>1.6E7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="n" s="3">
+        <v>800.0</v>
+      </c>
+      <c r="E13" t="n" s="3">
+        <v>1.6E7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="n" s="3">
+        <v>800.0</v>
+      </c>
+      <c r="E14" t="n" s="3">
+        <v>1.6E7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="n" s="3">
+        <v>800.0</v>
+      </c>
+      <c r="E15" t="n" s="3">
+        <v>1.6E7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="n" s="3">
+        <v>1120.0</v>
+      </c>
+      <c r="E16" t="n" s="3">
+        <v>1.2416E8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="n" s="3">
+        <v>400.0</v>
+      </c>
+      <c r="E17" t="n" s="3">
+        <v>2000000.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="n" s="3">
+        <v>800.0</v>
+      </c>
+      <c r="E18" t="n" s="3">
+        <v>2.0E7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="n" s="3">
+        <v>400.0</v>
+      </c>
+      <c r="E19" t="n" s="3">
+        <v>4000000.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E20" t="n" s="3">
+        <v>960000.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E21" t="n" s="3">
+        <v>1600000.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E22" t="n" s="3">
+        <v>640000.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="n" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E23" t="n" s="3">
+        <v>640000.0</v>
       </c>
     </row>
   </sheetData>
